--- a/output/Enriched_Results.xlsx
+++ b/output/Enriched_Results.xlsx
@@ -601,12 +601,12 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$324 million</t>
+          <t>55 million</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Diamond</t>
+          <t>Gold</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$3.02 billion</t>
+          <t>$2.3 billion</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Sr. Director, Hardware at Google Quantum AI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Engineering @ Meta | prev. @Block, Google, Amazon | Advocate for underrepresented groups and non-traditional backgrounds in tech</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>SDE at Adobe</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>SDE-II @ Adobe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -942,7 +942,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>UX Design @ Google</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>PGY-1 at Harlem Hospital Center</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>SDE @ Apple | Ex Research @Adobe | Adobe WIT Scholar '22 | CSE @PESU '23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>HubSpot SE@CloudFiles | Ex-Vmware | IIMCAL'22 | NITC'16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Graduate student at Rivier University</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Co Founder &amp; Partner - SimplyHR Solutions LLP</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>

--- a/output/Enriched_Results.xlsx
+++ b/output/Enriched_Results.xlsx
@@ -601,12 +601,12 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55 million</t>
+          <t>$324 million</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Diamond</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PGY-1 at Harlem Hospital Center</t>
+          <t>Business Strategy Intern - Founder's Office @ Shipsy | Ex-Research In @ NRSC | Ex-ML Intern @ SCIMERTech | Senior At Indian Institute of Information Technology, Kottayam</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -991,7 +991,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/krishna-priya-bodicherla-m-d-289089100/</t>
+          <t>https://in.linkedin.com/in/sriharsha-bodicherla</t>
         </is>
       </c>
     </row>
